--- a/Recycling/Met_rec/metrec_Min_target.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.09140741226594043</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06834652134572052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.004556982737120198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0180883199407812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.08020794917900975</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7488.912623892931</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28360.20877875687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35705.03990259713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21879.31484088668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>238269.161453728</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7482.194287531729</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28842.00111133126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>36037.14488014206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22270.23789263516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>244673.5224121798</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1863355119391495</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1377042529884091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.008344598116996057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03211037934462872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1379565557657003</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.3603758910232228</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2557196596508846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01363982420830419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.05157508848110699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2095668708766048</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.6717397926444172</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4476284009652021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0202803808353138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.07647358475704819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.283977320790765</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.220181918156432</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.7563980495179622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02881392881362686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1086276530276123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3528722565311957</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.166285253820996</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.25644965760976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04282657979852733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1543362261710204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4249762704382399</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.741761173246766</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.061557715032545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.07263985541089202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.224625704710637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.5327471288762834</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.250113662221221</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.314642535603247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.141273526260891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3344495318767951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7303116504897754</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10.06194942029119</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.131985948956734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2916315485398432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.504276410122325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.09193454048252</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15.60618572138915</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.476031760592056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5909510245836377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.7596742005407138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.704968449899075</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>23.35463477301799</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.01253786843259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.127720539505497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.119082776314092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.643260484447544</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>33.79828054789041</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.09578906388438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.997583969062862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.571230899289389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.929203805386458</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>47.41479144244952</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.99524732643791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.276654108957711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.067294315830593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.514479533276681</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>64.62600698985607</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12.35111140590275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.990170433349136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.55189452719065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.295829199386407</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>85.74281172986649</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.60261857822864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.094431583681854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.006858040744319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.137783337690299</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>110.9003922221828</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28.96765948879107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30.98596625506029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.27616939421953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.55053827211027</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>140.0040389318466</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>44.77540785660523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>66.01549176491038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21.4470607056633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>68.17613403527014</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>172.710182057202</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>66.80170395247774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>110.4470369402719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.37442118985145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>105.4611397221771</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>208.4287467300805</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101.9170467349228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>161.239800314904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>48.10784260713247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>151.8517414770925</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>246.3938311231701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>156.416167746227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>220.8097744637802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>71.03133008510932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>224.5346943802641</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.393688971201098E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.958422517845591E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.193530301843359E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.487267429540019E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.05480072879775E-06</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>285.8715527126764</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>240.0145613368925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>311.7147586417443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>115.7761984658558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>361.510007712322</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>326.4514149529036</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>368.9840043581326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>486.4620355672287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>205.4897699212226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>631.0151176977747</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>368.4041961154268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>570.9268408483356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>821.2398578717978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>371.2211541610083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1138.561473732421</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>413.101505815601</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>882.9939028741388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1396.473330115357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>646.130551800417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2013.372966934421</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>463.4591454508778</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1335.402798779557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2270.171702272153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1050.370714836707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3356.991454423816</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>524.3309927737529</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1936.833526460881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3459.272473407318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1578.356668451088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5194.908292979035</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>602.7574473130009</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2666.787888438805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4922.964331304869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2197.623241212333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7456.025753144107</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>707.9563176101757</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3469.273609637346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6538.740031694208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2853.660569948697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9963.021946531977</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>850.9570088580091</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4244.155637232358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8086.064844685712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3467.249120997688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12422.57023717163</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1043.787039267258</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4886.034215141909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9342.46150388489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3959.78845411573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14558.14217271638</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.903402308684246E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.923730427793454E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.440675075980786E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.054813049284373E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.482998594599986E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1298.190124787169</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5376.143272574551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10279.1097986627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4321.584655445081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16383.29901552733</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1624.076616566735</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5795.205427414685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11077.66439819224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4622.675021059298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18196.0409516827</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2027.90922228133</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6223.249028288201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11912.33684675128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4934.427043571081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20208.70083474052</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2511.203717248035</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6672.742819060035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12807.45010379475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5274.72448983934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22329.70717958593</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3069.296516487272</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7095.375705033623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13657.20906321967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5607.027101196155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24278.39272199896</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3690.501895613191</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7407.454576386973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14288.34148330153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5854.539600618514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25791.66495683348</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4355.802428910387</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7541.122955090711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14564.8931956049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5946.208252579645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26769.90741833475</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5039.225429236006</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7520.516635616054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14532.96135156882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5891.811425621572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>27365.53820445342</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5709.061842858709</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7485.092502778347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14464.68347254109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5807.123693806517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>27987.0654404738</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6330.033091087208</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7583.045953353979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14650.61815578962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5821.063625932131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>29041.20196689944</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0004873921985924701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002569905402516182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.586471590158277E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.561577662248397E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0004099669439168251</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6866.363819634963</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7819.340944909149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15100.0539367224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5942.992339045339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30548.43240378231</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7285.490804449062</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8073.361597075078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15573.60918315061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6075.617773106499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32190.58094590565</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7561.901086031949</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8268.25428753748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15914.27090648351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6158.781795757789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33753.72650888045</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7680.443558439934</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8447.997568996074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16193.94606066867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6234.026863979221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35340.26903133874</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7638.4788354099</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8694.249131512142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16545.87330827126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6371.42738284441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37156.53728823111</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7446.445779679168</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9024.78165892375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16972.08998429135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6582.486368455912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39236.91802747619</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7126.77423432049</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9393.121706871334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17366.74110539562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6822.710438482842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>41456.73259122477</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6711.439212340063</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9751.304242496706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17670.82613373256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7051.681919768079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>43713.87379613033</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6238.694330264819</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10079.6454596471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17935.57056957374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7263.091777356708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46003.47425251287</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5749.543469118665</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10382.23541230799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18261.35630481019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7478.847317123072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48397.72567427214</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.002001731261023273</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001217577890926191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.866528710908816E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0004562511638427668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001986494954870701</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5284.317392477426</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10686.92997303131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18723.88523783306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7740.472349902398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>51040.3428141487</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4879.497038402516</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11027.44571150521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19332.23152510541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8082.284758196611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>54060.17113520473</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4564.826953005343</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11409.90044148991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20022.81440274645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8492.335896616247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>57415.07265123353</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4360.859648965203</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11812.38418144976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20693.52560868724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8911.701677239515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60881.45983749058</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4277.2755920837</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12216.0249995579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21266.58153972833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9283.974046262056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>64249.00553744636</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4312.42619320952</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12624.55407386379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21736.81548294875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9604.421394596295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67516.08733514867</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4454.383240893403</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13051.24699181393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22152.63298925269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9909.601576747935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>70841.14769743587</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4683.36247419551</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13493.19203964547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22555.95051878737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10225.03168888323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>74316.83003251209</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4974.941641366844</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13929.511545563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22964.00470591237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10547.31900574494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>77889.00194286152</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5303.279093697691</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14342.31879659017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23389.74864201941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10866.49138022746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81472.65075509985</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.006334935713533095</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004227294082566803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0003263199763974096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.00152160814802251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.006741396112421373</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5643.681311136937</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14732.61200948219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23848.6784742873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11183.10065833347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>85066.40814107597</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5974.261322164994</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15116.62209314191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24346.74409643576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11505.50320327914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>88741.89596883662</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6276.815859234923</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15510.99842835271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24871.51520129922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11839.80191917881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>92555.73038788966</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6537.224016649369</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15924.55690027303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25398.90208794871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12186.29778365283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>96513.13333112358</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6745.610249538317</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16357.82627340169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25903.82722596166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12539.15964745248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100588.378692696</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6896.355871488069</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16803.83443181958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>26365.01788028383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12885.42720498234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>104742.8126425368</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6987.940034518335</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17252.43366959312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>26773.47350996675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13212.90929066878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>108946.7371573241</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7022.590631173633</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17697.38507018499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>27143.22225992068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13523.49635123954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>113203.0298307397</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7005.780565579078</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18138.37099440003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>27505.95289050055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13832.85789401666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>117539.6304658135</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6945.642817714583</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18576.6795471089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>27889.67770291041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14155.971383186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>121983.1460319263</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01720907023188713</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01219273613319103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0009247252825637496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.004038394434289195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0181124921684911</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6852.367919651125</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19011.198439382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28301.37407124923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14495.3625202685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>126546.8554755505</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6737.605510066268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19440.80263629242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28729.81422418897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14843.95228489254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>131235.1740002383</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6613.845007816884</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19870.02756165246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>29162.58986786575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15196.6448029896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>136047.3630051812</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6493.726195239016</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20308.33838688744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>29594.64427472835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15554.18181536506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>140972.7920353146</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6389.242596273361</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20762.36999518078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30021.90247606292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15917.43286247443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>145994.0150275813</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6310.851071755999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21229.78611260795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30433.76877619316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16282.59002879584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>151102.2194110653</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6266.575750915893</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21701.87992813726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30818.41825587813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16643.56871033685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>156300.7298044305</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6261.257336987006</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22171.99335986776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31176.05956674292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16998.39872635767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>161590.862636148</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6296.114814378837</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22639.47764684999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31521.08305501341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17351.18309044424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>166965.2570710335</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6368.736534367785</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23106.26289955916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31869.96516043503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17707.93032674355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>172418.3369208258</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.04162866709823714</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.03063270646400837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002199882709223015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.009113277174858591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.04094062975561748</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6473.517088319963</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23572.2220285221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32228.98899015565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18071.64716396054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>177957.7564386064</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6602.449782690493</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24035.76906977186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32593.86130700351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18441.5353577174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>183599.3945254024</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6746.114280637945</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24498.48243785682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32959.25042454084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18816.04968837121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>189351.0238637218</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6894.6882954343</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24966.08351443389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33324.70326508598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19195.08974313284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>195206.1354634182</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7038.849675930477</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25443.41992660906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33690.643014127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19578.59986634866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>201150.0472509464</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7170.491946586338</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25929.22024383595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34051.94691233506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19964.11053861323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>207167.3285121118</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7283.227389237618</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26417.39568907307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34400.0853876377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20347.71435441746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>213248.1633091444</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7372.682055600274</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26903.63750492924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34732.30809973647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20728.0794768226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>219393.2615046915</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7436.601264660083</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27388.64241352096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35054.944675585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21107.99239092264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>225611.8658304547</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7474.789549554223</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27874.57189822921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35377.44430732684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21491.35436992907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>231908.360634208</v>
       </c>
     </row>
   </sheetData>
